--- a/XLWingsExample.xlsx
+++ b/XLWingsExample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpkee\Desktop\PythonProjects\DataAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D6269FF-DCC1-40D0-A687-7D05236CF53C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71DB413B-E61A-494E-81AA-F41FA920FF43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4365" windowWidth="21600" windowHeight="11835" xr2:uid="{41563AB6-75C6-4030-9115-44D8B084C472}"/>
+    <workbookView xWindow="5655" yWindow="2805" windowWidth="21600" windowHeight="11835" xr2:uid="{C989A7AF-B623-449C-93AD-6C081075DD2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -379,7 +379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E968132-05B1-43AA-A29A-A9152AF752A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FB0D3C-9EBC-4EFC-AEC1-FFB850E5668E}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
